--- a/Code/Results/Cases/Case_2_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991683252822477</v>
+        <v>1.04939922375373</v>
       </c>
       <c r="D2">
-        <v>1.01803755394747</v>
+        <v>1.050973433801496</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.018326595955736</v>
+        <v>1.059691868889542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04164214750099</v>
+        <v>1.037420499738239</v>
       </c>
       <c r="J2">
-        <v>1.02137394008501</v>
+        <v>1.05443787717463</v>
       </c>
       <c r="K2">
-        <v>1.029251188799561</v>
+        <v>1.053726224763436</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.02953638256762</v>
+        <v>1.062420681104071</v>
       </c>
       <c r="N2">
-        <v>1.022824408233159</v>
+        <v>1.055935299905933</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007547285192035</v>
+        <v>1.051022670417858</v>
       </c>
       <c r="D3">
-        <v>1.024338676009954</v>
+        <v>1.052201995554232</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.025648235128489</v>
+        <v>1.061158222071372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043863247294546</v>
+        <v>1.037756454615368</v>
       </c>
       <c r="J3">
-        <v>1.027834296958194</v>
+        <v>1.055707290643791</v>
       </c>
       <c r="K3">
-        <v>1.034669329268184</v>
+        <v>1.054766269299599</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.03596313158909</v>
+        <v>1.063699665313817</v>
       </c>
       <c r="N3">
-        <v>1.029293939554116</v>
+        <v>1.057206516087824</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012788408647571</v>
+        <v>1.05207092657535</v>
       </c>
       <c r="D4">
-        <v>1.02828303634986</v>
+        <v>1.05299488557036</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.030235497804531</v>
+        <v>1.062105265036241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045239132194455</v>
+        <v>1.037971592640361</v>
       </c>
       <c r="J4">
-        <v>1.031870547777316</v>
+        <v>1.056526124469037</v>
       </c>
       <c r="K4">
-        <v>1.038051685267904</v>
+        <v>1.055436618272851</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.039982204309013</v>
+        <v>1.064524956653175</v>
       </c>
       <c r="N4">
-        <v>1.033335922312367</v>
+        <v>1.058026512751023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014951231673801</v>
+        <v>1.052511092295274</v>
       </c>
       <c r="D5">
-        <v>1.029911290637311</v>
+        <v>1.053327727749324</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.032130158954441</v>
+        <v>1.062502982997139</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045803608821059</v>
+        <v>1.038061501235144</v>
       </c>
       <c r="J5">
-        <v>1.03353493874993</v>
+        <v>1.056869757295632</v>
       </c>
       <c r="K5">
-        <v>1.039445736938461</v>
+        <v>1.055717810217407</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.041640391846159</v>
+        <v>1.064871367125018</v>
       </c>
       <c r="N5">
-        <v>1.035002676911069</v>
+        <v>1.058370633575647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015312075201874</v>
+        <v>1.052584967809413</v>
       </c>
       <c r="D6">
-        <v>1.030182975956198</v>
+        <v>1.053383584960117</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.03244635662268</v>
+        <v>1.062569737276101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045897589217947</v>
+        <v>1.038076565959943</v>
       </c>
       <c r="J6">
-        <v>1.033812550039431</v>
+        <v>1.056927419527707</v>
       </c>
       <c r="K6">
-        <v>1.039678214892871</v>
+        <v>1.055764987257135</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.041917019225465</v>
+        <v>1.06492949941206</v>
       </c>
       <c r="N6">
-        <v>1.035280682440444</v>
+        <v>1.058428377694706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C7">
-        <v>1.012817464336909</v>
+        <v>1.052076810124021</v>
       </c>
       <c r="D7">
-        <v>1.028304908536608</v>
+        <v>1.052999334934428</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978918</v>
       </c>
       <c r="F7">
-        <v>1.030260944553517</v>
+        <v>1.062110580997148</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045246728635498</v>
+        <v>1.037972796103672</v>
       </c>
       <c r="J7">
-        <v>1.031892912408075</v>
+        <v>1.056530718472996</v>
       </c>
       <c r="K7">
-        <v>1.038070420135099</v>
+        <v>1.05544037801104</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459044</v>
       </c>
       <c r="M7">
-        <v>1.040004482141536</v>
+        <v>1.064529587525574</v>
       </c>
       <c r="N7">
-        <v>1.033358318703466</v>
+        <v>1.058031113278995</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002039141942996</v>
+        <v>1.049948341885319</v>
       </c>
       <c r="D8">
-        <v>1.020195739001609</v>
+        <v>1.051389065260838</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.020833474489517</v>
+        <v>1.060187804712499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04240593868337</v>
+        <v>1.037534504119404</v>
       </c>
       <c r="J8">
-        <v>1.023588357935517</v>
+        <v>1.054867416824941</v>
       </c>
       <c r="K8">
-        <v>1.031108922333742</v>
+        <v>1.054078261175464</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>1.031738448315477</v>
+        <v>1.062853400176791</v>
       </c>
       <c r="N8">
-        <v>1.025041970811011</v>
+        <v>1.056365449551817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9815261284138561</v>
+        <v>1.046180198422649</v>
       </c>
       <c r="D9">
-        <v>1.00479455554209</v>
+        <v>1.048535375649487</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.002960193703142</v>
+        <v>1.056785565403281</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036893363692547</v>
+        <v>1.036744850598767</v>
       </c>
       <c r="J9">
-        <v>1.007748547480335</v>
+        <v>1.051916472788865</v>
       </c>
       <c r="K9">
-        <v>1.017810320446331</v>
+        <v>1.051657596436267</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.016005425711201</v>
+        <v>1.059881796222143</v>
       </c>
       <c r="N9">
-        <v>1.009179666008131</v>
+        <v>1.053410314836731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.966607573350441</v>
+        <v>1.043655642075578</v>
       </c>
       <c r="D10">
-        <v>0.9936283035049873</v>
+        <v>1.046621576846659</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9900206242343124</v>
+        <v>1.054507408025584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032817832265781</v>
+        <v>1.036206601542855</v>
       </c>
       <c r="J10">
-        <v>0.9962116878546259</v>
+        <v>1.049935205841814</v>
       </c>
       <c r="K10">
-        <v>1.008113561834315</v>
+        <v>1.050029650134886</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.0045724277513</v>
+        <v>1.057888159388326</v>
       </c>
       <c r="N10">
-        <v>0.997626422718457</v>
+        <v>1.051426234263361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9597925996777207</v>
+        <v>1.042559371914601</v>
       </c>
       <c r="D11">
-        <v>0.9885390420220393</v>
+        <v>1.045790089212595</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9841269887417914</v>
+        <v>1.053518447484715</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030941902068297</v>
+        <v>1.035970694855688</v>
       </c>
       <c r="J11">
-        <v>0.9909392882022561</v>
+        <v>1.049073863248875</v>
       </c>
       <c r="K11">
-        <v>1.003680380875261</v>
+        <v>1.049321274715514</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9993545860987421</v>
+        <v>1.057021799464119</v>
       </c>
       <c r="N11">
-        <v>0.9923465356538284</v>
+        <v>1.050563668465143</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9572017076871431</v>
+        <v>1.04215168618118</v>
       </c>
       <c r="D12">
-        <v>0.9866063061666647</v>
+        <v>1.045480808090814</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9818892926722923</v>
+        <v>1.053150716802679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030226745012613</v>
+        <v>1.035882638484958</v>
       </c>
       <c r="J12">
-        <v>0.9889346933775364</v>
+        <v>1.048753394993445</v>
       </c>
       <c r="K12">
-        <v>1.00199468686244</v>
+        <v>1.049057623770338</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9973718896041854</v>
+        <v>1.056699518990318</v>
       </c>
       <c r="N12">
-        <v>0.9903390940745274</v>
+        <v>1.050242745108031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9577602655443622</v>
+        <v>1.042239158190477</v>
       </c>
       <c r="D13">
-        <v>0.9870228755864557</v>
+        <v>1.045547169525259</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.982371569132495</v>
+        <v>1.05322961395278</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03038100848399</v>
+        <v>1.03590154639196</v>
       </c>
       <c r="J13">
-        <v>0.9893668579865149</v>
+        <v>1.048822160548493</v>
       </c>
       <c r="K13">
-        <v>1.002358107024627</v>
+        <v>1.049114201856315</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9977992795476618</v>
+        <v>1.056768670936044</v>
       </c>
       <c r="N13">
-        <v>0.9907718724068204</v>
+        <v>1.050311608318055</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9595796888644519</v>
+        <v>1.042525682398798</v>
       </c>
       <c r="D14">
-        <v>0.98838017204101</v>
+        <v>1.045764532753997</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.983943041140065</v>
+        <v>1.053488058702174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030883171826393</v>
+        <v>1.035963424881936</v>
       </c>
       <c r="J14">
-        <v>0.9907745592898846</v>
+        <v>1.049047384058943</v>
       </c>
       <c r="K14">
-        <v>1.00354186086935</v>
+        <v>1.049299492081632</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9991916327484315</v>
+        <v>1.056995169423203</v>
       </c>
       <c r="N14">
-        <v>0.9921815728075066</v>
+        <v>1.050537151671723</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9606926091199527</v>
+        <v>1.042702155124369</v>
       </c>
       <c r="D15">
-        <v>0.9892106984069757</v>
+        <v>1.045898400219913</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9849046865580786</v>
+        <v>1.053647243481038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031190085537502</v>
+        <v>1.036001493168463</v>
       </c>
       <c r="J15">
-        <v>0.9916356196640309</v>
+        <v>1.049186081519243</v>
       </c>
       <c r="K15">
-        <v>1.004265917169598</v>
+        <v>1.049413585185573</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.000043459439318</v>
+        <v>1.05713465927104</v>
       </c>
       <c r="N15">
-        <v>0.9930438559861492</v>
+        <v>1.050676046098326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.967051875595435</v>
+        <v>1.043728331031734</v>
       </c>
       <c r="D16">
-        <v>0.9939603644229732</v>
+        <v>1.046676700189103</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9904052427436721</v>
+        <v>1.054572988434171</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032939854023111</v>
+        <v>1.036222197753266</v>
       </c>
       <c r="J16">
-        <v>0.9965553907074235</v>
+        <v>1.049992296939352</v>
       </c>
       <c r="K16">
-        <v>1.008402528140877</v>
+        <v>1.0500765889861</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.004912727387562</v>
+        <v>1.057945590654737</v>
       </c>
       <c r="N16">
-        <v>0.9979706136687289</v>
+        <v>1.051483406436805</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9709417530571848</v>
+        <v>1.044371179209782</v>
       </c>
       <c r="D17">
-        <v>0.9968689054033972</v>
+        <v>1.047164151266761</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9937745649479598</v>
+        <v>1.055153006112888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034006582751482</v>
+        <v>1.036359876929257</v>
       </c>
       <c r="J17">
-        <v>0.9995642871552569</v>
+        <v>1.050497086095632</v>
       </c>
       <c r="K17">
-        <v>1.010932057683037</v>
+        <v>1.050491540488577</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.007892636230316</v>
+        <v>1.058453429115283</v>
       </c>
       <c r="N17">
-        <v>1.000983783094644</v>
+        <v>1.051988912451588</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9731768509024873</v>
+        <v>1.044745841491531</v>
       </c>
       <c r="D18">
-        <v>0.9985411950565845</v>
+        <v>1.047448203668907</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9957121495487876</v>
+        <v>1.055491079795638</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034618182483173</v>
+        <v>1.036439908941309</v>
       </c>
       <c r="J18">
-        <v>1.001292958475263</v>
+        <v>1.050791189771982</v>
       </c>
       <c r="K18">
-        <v>1.012385156974738</v>
+        <v>1.050733241030182</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.009605309635414</v>
+        <v>1.058749344063685</v>
       </c>
       <c r="N18">
-        <v>1.002714909326206</v>
+        <v>1.052283433788892</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9739333991592677</v>
+        <v>1.044873541132736</v>
       </c>
       <c r="D19">
-        <v>0.9991074117658298</v>
+        <v>1.047545012742458</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.996368255549397</v>
+        <v>1.055606313657166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034824969274791</v>
+        <v>1.036467151424993</v>
       </c>
       <c r="J19">
-        <v>1.001878046332928</v>
+        <v>1.05089141564137</v>
       </c>
       <c r="K19">
-        <v>1.012876943988984</v>
+        <v>1.050815598327399</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.010185091685592</v>
+        <v>1.058850193054678</v>
       </c>
       <c r="N19">
-        <v>1.003300828075739</v>
+        <v>1.052383801990511</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9705279436070445</v>
+        <v>1.044302238830113</v>
       </c>
       <c r="D20">
-        <v>0.9965593789861266</v>
+        <v>1.047111880326046</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9934159647429469</v>
+        <v>1.055090800690613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03389324086756</v>
+        <v>1.036345133613206</v>
       </c>
       <c r="J20">
-        <v>0.9992442191980504</v>
+        <v>1.050442961338668</v>
       </c>
       <c r="K20">
-        <v>1.010662998571515</v>
+        <v>1.050447054690784</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.007575582955233</v>
+        <v>1.058398973814412</v>
       </c>
       <c r="N20">
-        <v>1.000663260604225</v>
+        <v>1.051934710831261</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9590456112341937</v>
+        <v>1.042441321579372</v>
       </c>
       <c r="D21">
-        <v>0.9879816881664994</v>
+        <v>1.045700536631611</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9834816646410002</v>
+        <v>1.053411963925634</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030735818424805</v>
+        <v>1.035945215108717</v>
       </c>
       <c r="J21">
-        <v>0.9903613420924862</v>
+        <v>1.048981075987033</v>
       </c>
       <c r="K21">
-        <v>1.003194385370588</v>
+        <v>1.04924494339282</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9987828883707079</v>
+        <v>1.056928484478152</v>
       </c>
       <c r="N21">
-        <v>0.9917677687942912</v>
+        <v>1.050470749434746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9514780852763539</v>
+        <v>1.04126849256838</v>
       </c>
       <c r="D22">
-        <v>0.9823409011367663</v>
+        <v>1.044810678865889</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9769517364867683</v>
+        <v>1.052354169941073</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028643415320095</v>
+        <v>1.035691280274601</v>
       </c>
       <c r="J22">
-        <v>0.9845062211373357</v>
+        <v>1.048058874871081</v>
       </c>
       <c r="K22">
-        <v>0.9982704973635091</v>
+        <v>1.048486064781399</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9929940413674184</v>
+        <v>1.056001171585175</v>
       </c>
       <c r="N22">
-        <v>0.9859043328957927</v>
+        <v>1.049547238687431</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9555251052299023</v>
+        <v>1.041890500981331</v>
       </c>
       <c r="D23">
-        <v>0.9853562388345013</v>
+        <v>1.045282648321494</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.980442117703061</v>
+        <v>1.052915142693142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029763422141967</v>
+        <v>1.035826133071246</v>
       </c>
       <c r="J23">
-        <v>0.9876374738810533</v>
+        <v>1.048548044250079</v>
       </c>
       <c r="K23">
-        <v>1.000903797569847</v>
+        <v>1.048888653891342</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9960891791280753</v>
+        <v>1.05649302240121</v>
       </c>
       <c r="N23">
-        <v>0.989040032377566</v>
+        <v>1.050037102743055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9707150302900731</v>
+        <v>1.044333390947744</v>
       </c>
       <c r="D24">
-        <v>0.9966993151693433</v>
+        <v>1.047135500147233</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.993578085933649</v>
+        <v>1.055118909387557</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033944487837556</v>
+        <v>1.036351796329556</v>
       </c>
       <c r="J24">
-        <v>0.9993889252742409</v>
+        <v>1.050467419010314</v>
       </c>
       <c r="K24">
-        <v>1.01078464353691</v>
+        <v>1.050467156938969</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.007718924028177</v>
+        <v>1.058423580743724</v>
       </c>
       <c r="N24">
-        <v>1.000808172179642</v>
+        <v>1.051959203235605</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9870303113848163</v>
+        <v>1.047156499318118</v>
       </c>
       <c r="D25">
-        <v>1.008922231845581</v>
+        <v>1.049275087787685</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.007747002674239</v>
+        <v>1.057666847842078</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038384216262131</v>
+        <v>1.036951065041478</v>
       </c>
       <c r="J25">
-        <v>1.012002182014341</v>
+        <v>1.052681786000258</v>
       </c>
       <c r="K25">
-        <v>1.021383602756302</v>
+        <v>1.052285862285455</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.020226235093057</v>
+        <v>1.060652205192761</v>
       </c>
       <c r="N25">
-        <v>1.013439341191074</v>
+        <v>1.054176714880667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04939922375373</v>
+        <v>0.9991683252822489</v>
       </c>
       <c r="D2">
-        <v>1.050973433801496</v>
+        <v>1.018037553947471</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.059691868889542</v>
+        <v>1.018326595955737</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037420499738239</v>
+        <v>1.04164214750099</v>
       </c>
       <c r="J2">
-        <v>1.05443787717463</v>
+        <v>1.021373940085011</v>
       </c>
       <c r="K2">
-        <v>1.053726224763436</v>
+        <v>1.029251188799562</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.062420681104071</v>
+        <v>1.029536382567621</v>
       </c>
       <c r="N2">
-        <v>1.055935299905933</v>
+        <v>1.02282440823316</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051022670417858</v>
+        <v>1.007547285192034</v>
       </c>
       <c r="D3">
-        <v>1.052201995554232</v>
+        <v>1.024338676009954</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.061158222071372</v>
+        <v>1.025648235128489</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037756454615368</v>
+        <v>1.043863247294545</v>
       </c>
       <c r="J3">
-        <v>1.055707290643791</v>
+        <v>1.027834296958194</v>
       </c>
       <c r="K3">
-        <v>1.054766269299599</v>
+        <v>1.034669329268183</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.063699665313817</v>
+        <v>1.035963131589089</v>
       </c>
       <c r="N3">
-        <v>1.057206516087824</v>
+        <v>1.029293939554116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05207092657535</v>
+        <v>1.01278840864757</v>
       </c>
       <c r="D4">
-        <v>1.05299488557036</v>
+        <v>1.028283036349859</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.062105265036241</v>
+        <v>1.03023549780453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037971592640361</v>
+        <v>1.045239132194455</v>
       </c>
       <c r="J4">
-        <v>1.056526124469037</v>
+        <v>1.031870547777315</v>
       </c>
       <c r="K4">
-        <v>1.055436618272851</v>
+        <v>1.038051685267903</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.064524956653175</v>
+        <v>1.039982204309013</v>
       </c>
       <c r="N4">
-        <v>1.058026512751023</v>
+        <v>1.033335922312365</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052511092295274</v>
+        <v>1.014951231673803</v>
       </c>
       <c r="D5">
-        <v>1.053327727749324</v>
+        <v>1.029911290637313</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.062502982997139</v>
+        <v>1.032130158954443</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038061501235144</v>
+        <v>1.04580360882106</v>
       </c>
       <c r="J5">
-        <v>1.056869757295632</v>
+        <v>1.033534938749932</v>
       </c>
       <c r="K5">
-        <v>1.055717810217407</v>
+        <v>1.039445736938462</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.064871367125018</v>
+        <v>1.041640391846161</v>
       </c>
       <c r="N5">
-        <v>1.058370633575647</v>
+        <v>1.035002676911071</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052584967809413</v>
+        <v>1.015312075201873</v>
       </c>
       <c r="D6">
-        <v>1.053383584960117</v>
+        <v>1.030182975956197</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.062569737276101</v>
+        <v>1.032446356622679</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038076565959943</v>
+        <v>1.045897589217946</v>
       </c>
       <c r="J6">
-        <v>1.056927419527707</v>
+        <v>1.03381255003943</v>
       </c>
       <c r="K6">
-        <v>1.055764987257135</v>
+        <v>1.03967821489287</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.06492949941206</v>
+        <v>1.041917019225464</v>
       </c>
       <c r="N6">
-        <v>1.058428377694706</v>
+        <v>1.035280682440443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052076810124021</v>
+        <v>1.012817464336907</v>
       </c>
       <c r="D7">
-        <v>1.052999334934428</v>
+        <v>1.028304908536607</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978918</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.062110580997148</v>
+        <v>1.030260944553516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037972796103672</v>
+        <v>1.045246728635497</v>
       </c>
       <c r="J7">
-        <v>1.056530718472996</v>
+        <v>1.031892912408073</v>
       </c>
       <c r="K7">
-        <v>1.05544037801104</v>
+        <v>1.038070420135099</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459044</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.064529587525574</v>
+        <v>1.040004482141535</v>
       </c>
       <c r="N7">
-        <v>1.058031113278995</v>
+        <v>1.033358318703465</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049948341885319</v>
+        <v>1.002039141942996</v>
       </c>
       <c r="D8">
-        <v>1.051389065260838</v>
+        <v>1.020195739001609</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.060187804712499</v>
+        <v>1.020833474489517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037534504119404</v>
+        <v>1.04240593868337</v>
       </c>
       <c r="J8">
-        <v>1.054867416824941</v>
+        <v>1.023588357935517</v>
       </c>
       <c r="K8">
-        <v>1.054078261175464</v>
+        <v>1.031108922333742</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.062853400176791</v>
+        <v>1.031738448315478</v>
       </c>
       <c r="N8">
-        <v>1.056365449551817</v>
+        <v>1.025041970811011</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046180198422649</v>
+        <v>0.9815261284138564</v>
       </c>
       <c r="D9">
-        <v>1.048535375649487</v>
+        <v>1.00479455554209</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.056785565403281</v>
+        <v>1.002960193703142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036744850598767</v>
+        <v>1.036893363692547</v>
       </c>
       <c r="J9">
-        <v>1.051916472788865</v>
+        <v>1.007748547480335</v>
       </c>
       <c r="K9">
-        <v>1.051657596436267</v>
+        <v>1.017810320446331</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.059881796222143</v>
+        <v>1.016005425711201</v>
       </c>
       <c r="N9">
-        <v>1.053410314836731</v>
+        <v>1.009179666008131</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043655642075578</v>
+        <v>0.9666075733504405</v>
       </c>
       <c r="D10">
-        <v>1.046621576846659</v>
+        <v>0.9936283035049871</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.054507408025584</v>
+        <v>0.990020624234312</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036206601542855</v>
+        <v>1.032817832265781</v>
       </c>
       <c r="J10">
-        <v>1.049935205841814</v>
+        <v>0.9962116878546257</v>
       </c>
       <c r="K10">
-        <v>1.050029650134886</v>
+        <v>1.008113561834314</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.057888159388326</v>
+        <v>1.004572427751299</v>
       </c>
       <c r="N10">
-        <v>1.051426234263361</v>
+        <v>0.9976264227184567</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042559371914601</v>
+        <v>0.9597925996777202</v>
       </c>
       <c r="D11">
-        <v>1.045790089212595</v>
+        <v>0.9885390420220389</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.053518447484715</v>
+        <v>0.9841269887417912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035970694855688</v>
+        <v>1.030941902068296</v>
       </c>
       <c r="J11">
-        <v>1.049073863248875</v>
+        <v>0.9909392882022557</v>
       </c>
       <c r="K11">
-        <v>1.049321274715514</v>
+        <v>1.003680380875261</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.057021799464119</v>
+        <v>0.9993545860987418</v>
       </c>
       <c r="N11">
-        <v>1.050563668465143</v>
+        <v>0.9923465356538282</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04215168618118</v>
+        <v>0.9572017076871421</v>
       </c>
       <c r="D12">
-        <v>1.045480808090814</v>
+        <v>0.9866063061666639</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.053150716802679</v>
+        <v>0.9818892926722915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035882638484958</v>
+        <v>1.030226745012613</v>
       </c>
       <c r="J12">
-        <v>1.048753394993445</v>
+        <v>0.9889346933775356</v>
       </c>
       <c r="K12">
-        <v>1.049057623770338</v>
+        <v>1.001994686862439</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.056699518990318</v>
+        <v>0.9973718896041843</v>
       </c>
       <c r="N12">
-        <v>1.050242745108031</v>
+        <v>0.9903390940745265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042239158190477</v>
+        <v>0.9577602655443638</v>
       </c>
       <c r="D13">
-        <v>1.045547169525259</v>
+        <v>0.9870228755864571</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.05322961395278</v>
+        <v>0.9823715691324963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03590154639196</v>
+        <v>1.030381008483991</v>
       </c>
       <c r="J13">
-        <v>1.048822160548493</v>
+        <v>0.9893668579865166</v>
       </c>
       <c r="K13">
-        <v>1.049114201856315</v>
+        <v>1.002358107024629</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.056768670936044</v>
+        <v>0.9977992795476633</v>
       </c>
       <c r="N13">
-        <v>1.050311608318055</v>
+        <v>0.9907718724068221</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042525682398798</v>
+        <v>0.9595796888644522</v>
       </c>
       <c r="D14">
-        <v>1.045764532753997</v>
+        <v>0.9883801720410103</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.053488058702174</v>
+        <v>0.9839430411400651</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035963424881936</v>
+        <v>1.030883171826393</v>
       </c>
       <c r="J14">
-        <v>1.049047384058943</v>
+        <v>0.9907745592898849</v>
       </c>
       <c r="K14">
-        <v>1.049299492081632</v>
+        <v>1.003541860869351</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.056995169423203</v>
+        <v>0.9991916327484317</v>
       </c>
       <c r="N14">
-        <v>1.050537151671723</v>
+        <v>0.992181572807507</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042702155124369</v>
+        <v>0.9606926091199508</v>
       </c>
       <c r="D15">
-        <v>1.045898400219913</v>
+        <v>0.9892106984069741</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.053647243481038</v>
+        <v>0.9849046865580764</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036001493168463</v>
+        <v>1.031190085537501</v>
       </c>
       <c r="J15">
-        <v>1.049186081519243</v>
+        <v>0.991635619664029</v>
       </c>
       <c r="K15">
-        <v>1.049413585185573</v>
+        <v>1.004265917169596</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.05713465927104</v>
+        <v>1.000043459439316</v>
       </c>
       <c r="N15">
-        <v>1.050676046098326</v>
+        <v>0.9930438559861474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043728331031734</v>
+        <v>0.9670518755954337</v>
       </c>
       <c r="D16">
-        <v>1.046676700189103</v>
+        <v>0.9939603644229721</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.054572988434171</v>
+        <v>0.9904052427436708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036222197753266</v>
+        <v>1.03293985402311</v>
       </c>
       <c r="J16">
-        <v>1.049992296939352</v>
+        <v>0.9965553907074223</v>
       </c>
       <c r="K16">
-        <v>1.0500765889861</v>
+        <v>1.008402528140875</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.057945590654737</v>
+        <v>1.004912727387561</v>
       </c>
       <c r="N16">
-        <v>1.051483406436805</v>
+        <v>0.9979706136687276</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044371179209782</v>
+        <v>0.9709417530571842</v>
       </c>
       <c r="D17">
-        <v>1.047164151266761</v>
+        <v>0.9968689054033967</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.055153006112888</v>
+        <v>0.9937745649479593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036359876929257</v>
+        <v>1.034006582751481</v>
       </c>
       <c r="J17">
-        <v>1.050497086095632</v>
+        <v>0.9995642871552565</v>
       </c>
       <c r="K17">
-        <v>1.050491540488577</v>
+        <v>1.010932057683037</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.058453429115283</v>
+        <v>1.007892636230315</v>
       </c>
       <c r="N17">
-        <v>1.051988912451588</v>
+        <v>1.000983783094643</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044745841491531</v>
+        <v>0.973176850902488</v>
       </c>
       <c r="D18">
-        <v>1.047448203668907</v>
+        <v>0.9985411950565845</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.055491079795638</v>
+        <v>0.995712149548788</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036439908941309</v>
+        <v>1.034618182483173</v>
       </c>
       <c r="J18">
-        <v>1.050791189771982</v>
+        <v>1.001292958475264</v>
       </c>
       <c r="K18">
-        <v>1.050733241030182</v>
+        <v>1.012385156974738</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.058749344063685</v>
+        <v>1.009605309635415</v>
       </c>
       <c r="N18">
-        <v>1.052283433788892</v>
+        <v>1.002714909326206</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044873541132736</v>
+        <v>0.973933399159267</v>
       </c>
       <c r="D19">
-        <v>1.047545012742458</v>
+        <v>0.9991074117658294</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.055606313657166</v>
+        <v>0.9963682555493963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036467151424993</v>
+        <v>1.034824969274791</v>
       </c>
       <c r="J19">
-        <v>1.05089141564137</v>
+        <v>1.001878046332928</v>
       </c>
       <c r="K19">
-        <v>1.050815598327399</v>
+        <v>1.012876943988984</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.058850193054678</v>
+        <v>1.010185091685591</v>
       </c>
       <c r="N19">
-        <v>1.052383801990511</v>
+        <v>1.003300828075739</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044302238830113</v>
+        <v>0.9705279436070454</v>
       </c>
       <c r="D20">
-        <v>1.047111880326046</v>
+        <v>0.9965593789861273</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.055090800690613</v>
+        <v>0.9934159647429476</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036345133613206</v>
+        <v>1.033893240867561</v>
       </c>
       <c r="J20">
-        <v>1.050442961338668</v>
+        <v>0.9992442191980514</v>
       </c>
       <c r="K20">
-        <v>1.050447054690784</v>
+        <v>1.010662998571515</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.058398973814412</v>
+        <v>1.007575582955233</v>
       </c>
       <c r="N20">
-        <v>1.051934710831261</v>
+        <v>1.000663260604227</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042441321579372</v>
+        <v>0.959045611234195</v>
       </c>
       <c r="D21">
-        <v>1.045700536631611</v>
+        <v>0.9879816881665004</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.053411963925634</v>
+        <v>0.9834816646410017</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035945215108717</v>
+        <v>1.030735818424805</v>
       </c>
       <c r="J21">
-        <v>1.048981075987033</v>
+        <v>0.9903613420924874</v>
       </c>
       <c r="K21">
-        <v>1.04924494339282</v>
+        <v>1.00319438537059</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.056928484478152</v>
+        <v>0.9987828883707094</v>
       </c>
       <c r="N21">
-        <v>1.050470749434746</v>
+        <v>0.9917677687942925</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04126849256838</v>
+        <v>0.9514780852763547</v>
       </c>
       <c r="D22">
-        <v>1.044810678865889</v>
+        <v>0.9823409011367666</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.052354169941073</v>
+        <v>0.9769517364867691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035691280274601</v>
+        <v>1.028643415320096</v>
       </c>
       <c r="J22">
-        <v>1.048058874871081</v>
+        <v>0.9845062211373362</v>
       </c>
       <c r="K22">
-        <v>1.048486064781399</v>
+        <v>0.9982704973635097</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.056001171585175</v>
+        <v>0.9929940413674193</v>
       </c>
       <c r="N22">
-        <v>1.049547238687431</v>
+        <v>0.9859043328957932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041890500981331</v>
+        <v>0.9555251052299034</v>
       </c>
       <c r="D23">
-        <v>1.045282648321494</v>
+        <v>0.9853562388345021</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.052915142693142</v>
+        <v>0.9804421177030619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035826133071246</v>
+        <v>1.029763422141967</v>
       </c>
       <c r="J23">
-        <v>1.048548044250079</v>
+        <v>0.9876374738810542</v>
       </c>
       <c r="K23">
-        <v>1.048888653891342</v>
+        <v>1.000903797569848</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.05649302240121</v>
+        <v>0.9960891791280764</v>
       </c>
       <c r="N23">
-        <v>1.050037102743055</v>
+        <v>0.9890400323775668</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044333390947744</v>
+        <v>0.9707150302900718</v>
       </c>
       <c r="D24">
-        <v>1.047135500147233</v>
+        <v>0.9966993151693422</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.055118909387557</v>
+        <v>0.9935780859336476</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036351796329556</v>
+        <v>1.033944487837555</v>
       </c>
       <c r="J24">
-        <v>1.050467419010314</v>
+        <v>0.9993889252742397</v>
       </c>
       <c r="K24">
-        <v>1.050467156938969</v>
+        <v>1.010784643536909</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.058423580743724</v>
+        <v>1.007718924028176</v>
       </c>
       <c r="N24">
-        <v>1.051959203235605</v>
+        <v>1.000808172179641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047156499318118</v>
+        <v>0.9870303113848167</v>
       </c>
       <c r="D25">
-        <v>1.049275087787685</v>
+        <v>1.008922231845581</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.057666847842078</v>
+        <v>1.007747002674239</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036951065041478</v>
+        <v>1.038384216262131</v>
       </c>
       <c r="J25">
-        <v>1.052681786000258</v>
+        <v>1.012002182014341</v>
       </c>
       <c r="K25">
-        <v>1.052285862285455</v>
+        <v>1.021383602756301</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.060652205192761</v>
+        <v>1.020226235093057</v>
       </c>
       <c r="N25">
-        <v>1.054176714880667</v>
+        <v>1.013439341191074</v>
       </c>
     </row>
   </sheetData>
